--- a/NewNewGantt.xlsx
+++ b/NewNewGantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88af51049543f108/Documents/A School Spring 2022/Project Lab/Project Lab 1/project-lab-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2760BCDD-DFD5-409A-90BC-8B46AE862E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2760BCDD-DFD5-409A-90BC-8B46AE862E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF84979A-5B84-49A5-95DD-34AB3D1ABDD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE92170B-2B2A-48C4-B9C6-9D53703E9E29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CE92170B-2B2A-48C4-B9C6-9D53703E9E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt 3.0" sheetId="1" r:id="rId1"/>
@@ -516,118 +516,118 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,1992 +1085,1992 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
-    <col min="6" max="25" width="3.33203125" style="3" customWidth="1"/>
-    <col min="26" max="32" width="3.33203125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" style="2"/>
-    <col min="34" max="34" width="17.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="25" width="3.28515625" style="3" customWidth="1"/>
+    <col min="26" max="32" width="3.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="2"/>
+    <col min="34" max="34" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:34" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:34" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="46">
         <v>44576</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="17">
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="46">
         <v>44601</v>
       </c>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
     </row>
-    <row r="3" spans="1:34" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:34" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="19" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="21" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="22" t="s">
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="32">
         <v>44576</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="22">
         <v>44577</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="22">
         <v>44578</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="22">
         <v>44579</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="22">
         <v>44580</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="22">
         <v>44581</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="22">
         <v>44582</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="22">
         <v>44583</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="22">
         <v>44584</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="22">
         <v>44585</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="22">
         <v>44586</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="22">
         <v>44587</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="22">
         <v>44588</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="22">
         <v>44589</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="22">
         <v>44590</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="22">
         <v>44591</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="22">
         <v>44592</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="22">
         <v>44593</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="22">
         <v>44594</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="22">
         <v>44595</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="22">
         <v>44596</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="22">
         <v>44597</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="22">
         <v>44598</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="22">
         <v>44599</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="22">
         <v>44600</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="22">
         <v>44601</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="22">
         <v>44602</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="38">
         <v>44576</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="38">
         <v>44577</v>
       </c>
-      <c r="E6" s="26" t="str">
+      <c r="E6" s="19" t="str">
         <f>IF(D6-C6-0,"",(D6-C6)+1)</f>
         <v/>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <f t="shared" ref="F6:O23" si="0">IF(AND(F$4&gt;=$C6,F$4&lt;=$D6),1,"")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P6" s="26" t="str">
+      <c r="H6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" s="19" t="str">
         <f t="shared" ref="P6:Y23" si="1">IF(AND(P$4&gt;=$C6,P$4&lt;=$D6),1,"")</f>
         <v/>
       </c>
-      <c r="Q6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y6" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z6" s="26" t="str">
+      <c r="Q6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z6" s="19" t="str">
         <f t="shared" ref="Z6:AF23" si="2">IF(AND(Z$4&gt;=$C6,Z$4&lt;=$D6),1,"")</f>
         <v/>
       </c>
-      <c r="AA6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG6" s="41" t="s">
+      <c r="AA6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG6" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="27"/>
+      <c r="AH6" s="43"/>
     </row>
-    <row r="7" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="38">
         <v>44578</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="38">
         <v>44579</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <f t="shared" ref="E7:E19" si="3">(D7-C7)+1</f>
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y7" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="28" t="s">
+      <c r="J7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="38">
         <v>44579</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="38">
         <v>44580</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="26">
+      <c r="F8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y8" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="28" t="s">
+      <c r="K8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="38">
         <v>44580</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="38">
         <v>44581</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J9" s="26">
+      <c r="F9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y9" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF9" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="29" t="s">
+      <c r="L9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O10" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y10" s="36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE10" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF10" s="36" t="str">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF10" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="38">
         <v>44581</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="38">
         <v>44582</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <v>2</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
     </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="38">
         <v>44582</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="38">
         <v>44584</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L12" s="26">
+      <c r="F12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y12" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE12" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF12" s="26" t="str">
+      <c r="O12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF12" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="38">
         <v>44584</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="38">
         <v>44585</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N13" s="26">
+      <c r="F13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y13" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF13" s="26" t="str">
+      <c r="P13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF13" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="38">
         <v>44585</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="38">
         <v>44586</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="26">
+      <c r="F14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O14" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y14" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF14" s="26" t="str">
+      <c r="Q14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF14" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:34" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:34" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
     </row>
-    <row r="16" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:34" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="40">
         <v>44587</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="40">
         <v>44589</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q16" s="26">
+      <c r="F16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q16" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y16" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF16" s="26" t="str">
+      <c r="T16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF16" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+    <row r="17" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="40">
         <v>44589</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="40">
         <v>44591</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S17" s="26">
+      <c r="F17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S17" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T17" s="26">
+      <c r="T17" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y17" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF17" s="26" t="str">
+      <c r="V17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF17" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+    <row r="18" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="40">
         <v>44591</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U18" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V18" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W18" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X18" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y18" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF18" s="26" t="str">
+      <c r="D18" s="40"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X18" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF18" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="40">
         <v>44593</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="40">
         <v>44594</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W19" s="26">
+      <c r="F19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W19" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF19" s="26" t="str">
+      <c r="Y19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF19" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="T20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="U20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="V20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="W20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Y20" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Z20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AA20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AC20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AD20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE20" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF20" s="23" t="str">
+    <row r="20" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF20" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
@@ -3185,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
@@ -3300,7 +3300,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="10"/>
@@ -3415,7 +3415,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
@@ -3530,7 +3530,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="10"/>
@@ -3645,14 +3645,14 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:32" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:32" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
@@ -3689,9 +3689,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
